--- a/src/main/resources/template/excel/export/SupplierAdvance.xlsx
+++ b/src/main/resources/template/excel/export/SupplierAdvance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\xuyq\桌面\结算单据导出模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <author>BMM</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -35,11 +35,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="F7")</t>
+          <t>jx:area(lastCell="F11")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="F5")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="F10")</t>
         </r>
       </text>
     </comment>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>编号</t>
   </si>
@@ -77,7 +77,7 @@
   </si>
   <si>
     <r>
-      <t>制单人：$</t>
+      <t>${obj.</t>
     </r>
     <r>
       <rPr>
@@ -88,13 +88,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{createUserName}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>制单时间：$</t>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
     </r>
     <r>
       <rPr>
@@ -105,13 +115,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{createTime}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>审核人：$</t>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
     </r>
     <r>
       <rPr>
@@ -122,13 +142,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{auditUserName}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>审核时间：$</t>
+      <t>remark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
     </r>
     <r>
       <rPr>
@@ -139,13 +169,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{auditTime}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${obj.</t>
+      <t>amount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
     </r>
     <r>
       <rPr>
@@ -156,7 +196,38 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>value</t>
+      <t>{sumAmount}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.ioString}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单号：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商：</t>
+  </si>
+  <si>
+    <t>付款期限：</t>
+  </si>
+  <si>
+    <t>机构：</t>
+  </si>
+  <si>
+    <t>行号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.rowNo</t>
     </r>
     <r>
       <rPr>
@@ -171,159 +242,62 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>${obj.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>label</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${obj.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>remark</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${obj.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>amount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>单据编号：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{formNo}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>备注：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{remark}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{sumAmount}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.ioString}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商预收款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构：${branchName}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款期限：${payTime}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商：${supplierName}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额合计：</t>
+    <t>制单人：</t>
+  </si>
+  <si>
+    <t>制单时间：</t>
+  </si>
+  <si>
+    <t>审核人：</t>
+  </si>
+  <si>
+    <t>审核时间：</t>
+  </si>
+  <si>
+    <t>${branchName}</t>
+  </si>
+  <si>
+    <t>${supplierName}</t>
+  </si>
+  <si>
+    <t>${formNo}</t>
+  </si>
+  <si>
+    <t>备注：</t>
+  </si>
+  <si>
+    <t>${remark}</t>
+  </si>
+  <si>
+    <t>${createUserName}</t>
+  </si>
+  <si>
+    <t>${createTime}</t>
+  </si>
+  <si>
+    <t>${auditUserName}</t>
+  </si>
+  <si>
+    <t>${auditTime}</t>
+  </si>
+  <si>
+    <t>最后修改人：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${updateUserName}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改时间：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${updateTime}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计：</t>
   </si>
 </sst>
 </file>
@@ -333,7 +307,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +345,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -409,45 +390,54 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,120 +714,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="20.25" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="D3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C8" s="5"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D12" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>

--- a/src/main/resources/template/excel/export/SupplierAdvance.xlsx
+++ b/src/main/resources/template/excel/export/SupplierAdvance.xlsx
@@ -21,10 +21,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>yml</author>
     <author>BMM</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -32,14 +33,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="F11")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>编号</t>
   </si>
@@ -205,10 +205,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>供应商费用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单号：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -299,6 +295,14 @@
   <si>
     <t>合计：</t>
   </si>
+  <si>
+    <t>供应商预付款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${payTime}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -307,7 +311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +355,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -717,21 +728,22 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
+    <col min="1" max="1" width="10.5" style="8" customWidth="1"/>
     <col min="2" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="20.25" style="4" customWidth="1"/>
     <col min="6" max="6" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B1" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="A1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -739,93 +751,95 @@
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
@@ -845,7 +859,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -865,7 +879,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -880,7 +894,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>

--- a/src/main/resources/template/excel/export/SupplierAdvance.xlsx
+++ b/src/main/resources/template/excel/export/SupplierAdvance.xlsx
@@ -33,6 +33,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="F11")</t>
@@ -95,6 +96,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -122,6 +124,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -149,6 +152,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -176,6 +180,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -230,6 +235,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -311,7 +317,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,12 +330,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -355,13 +363,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -728,15 +729,17 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="8" customWidth="1"/>
-    <col min="2" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="1" max="1" width="7.75" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">

--- a/src/main/resources/template/excel/export/SupplierAdvance.xlsx
+++ b/src/main/resources/template/excel/export/SupplierAdvance.xlsx
@@ -317,7 +317,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +364,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -406,12 +415,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -446,6 +449,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -734,11 +743,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="8" customWidth="1"/>
+    <col min="1" max="1" width="6" style="6" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -752,148 +761,148 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="10" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="10" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="10" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="6" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D12" s="3"/>
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
